--- a/data/NurseDemo.xlsx
+++ b/data/NurseDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtf35\PythonCode\nurse\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9CAE8E-88E0-4F6F-A9AD-0F716D6789DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A9B51E-88FA-4E3C-8972-C4B5CA5ED82D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>请勿删除此行！！！在这里的第一列(A)放入待排序的名单</t>
   </si>
   <si>
-    <t>请勿删除此行！！！在对应条目下方填写对应的参数，注意参数不要跨年！！！否则数据不正常！！ 年为4位(2019)，月为1到2位(2或10这种)</t>
+    <t>请勿删除此行！！！在对应条目下方填写对应的参数，注意参数不要跨年！！！否则数据不正常！！ 年为4位(2019)，月为1到2位(2或10这种)，随机开关只能写(是/否)</t>
   </si>
   <si>
     <t>开始年份</t>
@@ -36,6 +36,9 @@
     <t>开始月份</t>
   </si>
   <si>
+    <t>随机开关</t>
+  </si>
+  <si>
     <t>结束年份</t>
   </si>
   <si>
@@ -52,6 +55,16 @@
   </si>
   <si>
     <t>乃爱</t>
+  </si>
+  <si>
+    <t>小依</t>
+  </si>
+  <si>
+    <t>夏音</t>
+  </si>
+  <si>
+    <t>开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,10 +421,10 @@
   <sheetPr>
     <tabColor rgb="FF1072BA"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -423,27 +436,38 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -452,44 +476,50 @@
   <sheetPr>
     <tabColor rgb="FF1072BA"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>

--- a/data/NurseDemo.xlsx
+++ b/data/NurseDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtf35\PythonCode\nurse\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A9B51E-88FA-4E3C-8972-C4B5CA5ED82D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E9A99-8358-4582-979E-789F95A75C7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <t>请勿删除此行！！！在这里的第一列(A)放入待排序的名单</t>
   </si>
   <si>
-    <t>请勿删除此行！！！在对应条目下方填写对应的参数，注意参数不要跨年！！！否则数据不正常！！ 年为4位(2019)，月为1到2位(2或10这种)，随机开关只能写(是/否)</t>
+    <t>请勿删除此行！！！在对应条目下方填写对应的参数，注意参数不要跨年！！！否则数据不正常！！ 年为4位(2019)，月为1到2位(2或10这种)，随机开关只能写（开/关)</t>
   </si>
   <si>
     <t>开始年份</t>
@@ -424,7 +424,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
